--- a/employees 1.xlsx
+++ b/employees 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uncommonStudent\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ABD0B13-6773-4F7F-9459-BB0DCF109C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E32A142-CB83-4B24-8B88-EC0F1AC0A411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" xr2:uid="{C794C0D7-A4FB-4A02-AE38-F0D96FDDEF88}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Employee ID</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>roymakanjira@gmail.com</t>
+  </si>
+  <si>
+    <t>wesnashtadiwa@gmail.com</t>
+  </si>
+  <si>
+    <t>Wesnash Tadiwa</t>
   </si>
 </sst>
 </file>
@@ -462,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582CF5AC-4C7D-4DD4-B3E4-705A70003D06}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,6 +628,27 @@
         <v>2220</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>3000</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <f>D7+E7-F7</f>
+        <v>3170</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{1191AEAF-5EBD-48DA-87AA-5BBF3A2D8FE8}"/>
@@ -629,6 +656,7 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{B238EB47-697B-47EC-89B2-6384E8E6EA99}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{6B361C06-083E-4CA4-AF53-429DB39BBA7B}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{5F7AD1BA-F8F9-4D99-B7DD-5D14A1933C3C}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{EBD11199-B252-4CD8-B048-FB46DFA4C65D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
